--- a/biology/Botanique/Iris_laevigata/Iris_laevigata.xlsx
+++ b/biology/Botanique/Iris_laevigata/Iris_laevigata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Iris d'eau japonais (Iris laevigata) est une plante herbacée vivace de la famille des Iridacées originaire de Sibérie.
 Nom en Russe : Ирис гладкий
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une espèce d'iris à rhizome.
 La floraison a lieu d'avril à mai. La fleur - bleue en général, mais aussi jaune et blanc - comporte trois grands sépales à crête jaune et trois pétales de plus petite taille.
 Les graines flottent sur l'eau, ce qui assure leur dissémination.
-Différents décomptes donnent 28, 32 et 34 chromosomes, mais très majoritairement 32[1].
+Différents décomptes donnent 28, 32 et 34 chromosomes, mais très majoritairement 32.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Iris laevigata est classée dans le sous-genre Limniris, section Limniris[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Iris laevigata est classée dans le sous-genre Limniris, section Limniris.
 Cette espèce a été reclassée récemment dans le genre Limniris : Limniris laevigata (Fisch.  ) Rodion. (2007).
 Elle compte aussi deux synonymes :
 Iris albopurpurea Baker (1896)
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette belle espèce d'iris est originaire de Sibérie ; elle est présente en Russie (en particulier sur les bords du lac Baïkal), en Chine, en Corée et au Japon.
 Elle vit dans des terres très humides, pouvant être temporairement inondées, en bordure de mares, lacs et cours d'eau.
@@ -616,7 +634,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est maintenant bien répandue comme plante ornementale de bord de pièces d'eau.
 Elle compte de nombreuses variétés horticoles dont :
@@ -658,8 +678,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Au Japon
-Dans le jeu de cartes traditionnel japonais Hanafuda, des iris d'eau japonais sont représentés sur la série des 4 cartes du mois de mai.
+          <t>Au Japon</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le jeu de cartes traditionnel japonais Hanafuda, des iris d'eau japonais sont représentés sur la série des 4 cartes du mois de mai.
 </t>
         </is>
       </c>
